--- a/biology/Médecine/Fièvre_récurrente_avec_hyper-IgD/Fièvre_récurrente_avec_hyper-IgD.xlsx
+++ b/biology/Médecine/Fièvre_récurrente_avec_hyper-IgD/Fièvre_récurrente_avec_hyper-IgD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_r%C3%A9currente_avec_hyper-IgD</t>
+          <t>Fièvre_récurrente_avec_hyper-IgD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La fièvre récurrente avec hyper-IgD ou fièvre périodique avec hyperimmunoglobulinémie D est une maladie héréditaire inflammatoire se manifestant par des accès de fièvre sans aucune périodicité précédés de frissons avec céphalée et adénopathie dans la région cervicale et parfois de diarrhée. Les premiers accès fébriles commencent avant un an et durent de 3 à 7 jours.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_r%C3%A9currente_avec_hyper-IgD</t>
+          <t>Fièvre_récurrente_avec_hyper-IgD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,10 +528,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Orphanet
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:260920 [1]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:260920 
  Portail de la médecine                     </t>
         </is>
       </c>
